--- a/Challenge result/instance_result.xlsx
+++ b/Challenge result/instance_result.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6190F24-CFDD-4600-B978-963D9840F0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DA8000-A4BA-4909-85AC-B5E26431E4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8565" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8568" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="第一次" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="第二次" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="第一次" sheetId="1" r:id="rId1"/>
+    <sheet name="第二次" sheetId="2" r:id="rId2"/>
     <sheet name="score" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>team</t>
   </si>
@@ -162,6 +162,26 @@
   </si>
   <si>
     <t>HD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crainet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mec-lab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nic-vicorob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubmers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,8 +189,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -264,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,6 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,9 +592,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -627,7 +652,7 @@
         <v>26.232249021983801</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,7 +681,7 @@
         <v>25.3632899095456</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -685,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -714,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -743,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -772,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -801,7 +826,7 @@
         <v>31.121577103168701</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -859,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -888,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -917,7 +942,7 @@
         <v>28.5401979594685</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -957,12 +982,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1045,7 @@
         <v>26.232249020000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1074,7 @@
         <v>25.363289909999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>31.1215771</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1335,7 @@
         <v>28.54019796</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1347,21 +1372,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF8F879-57DE-42A2-922A-BD8CC63125F9}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F18:F19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.75" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1380,9 +1406,11 @@
       <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,8 +1430,15 @@
         <v>30</v>
       </c>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1423,8 +1458,15 @@
         <v>40</v>
       </c>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1444,8 +1486,15 @@
         <v>32</v>
       </c>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1465,10 +1514,17 @@
         <v>31</v>
       </c>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>0.62144904676894097</v>
@@ -1485,9 +1541,18 @@
       <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="7">
+        <v>192</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1506,9 +1571,18 @@
       <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="7">
+        <v>192</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1527,11 +1601,22 @@
       <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="7">
+        <v>192</v>
+      </c>
+      <c r="H8" s="9">
+        <v>159</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>0.67390084830159702</v>
@@ -1548,11 +1633,22 @@
       <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="7">
+        <v>192</v>
+      </c>
+      <c r="H9" s="9">
+        <v>159</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
         <v>0.67967361571872997</v>
@@ -1569,9 +1665,20 @@
       <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="7">
+        <v>192</v>
+      </c>
+      <c r="H10" s="9">
+        <v>159</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1590,11 +1697,22 @@
       <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>192</v>
+      </c>
+      <c r="H11" s="9">
+        <v>159</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
         <v>0.69003947527713905</v>
@@ -1611,9 +1729,20 @@
       <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="7">
+        <v>192</v>
+      </c>
+      <c r="H12" s="9">
+        <v>159</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1632,9 +1761,18 @@
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="7">
+        <v>192</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1654,6 +1792,13 @@
         <v>37</v>
       </c>
       <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
